--- a/data/CS1/case18_1/case18_1_2030.xlsx
+++ b/data/CS1/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0271ED1D-63DD-46CE-BB1F-96577739387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD2770-3AAC-404B-A9CA-2F618FEFCFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15016,8 +15016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -22783,7 +22783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADF3E31-EA86-4619-A30C-C96EA9C88E09}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1/case18_1/case18_1_2030.xlsx
+++ b/data/CS1/case18_1/case18_1_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD2770-3AAC-404B-A9CA-2F618FEFCFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3AA65E-4519-485A-BDF8-D546CAA17F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,11 +15030,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS1/case18_1/case18_1_2030.xlsx
+++ b/data/CS1/case18_1/case18_1_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3AA65E-4519-485A-BDF8-D546CAA17F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796E89C-84C4-4074-8D74-E27969A32271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,13 +15030,14 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f t="shared" ref="C1:E1" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">

--- a/data/CS1/case18_1/case18_1_2030.xlsx
+++ b/data/CS1/case18_1/case18_1_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF49E9C-F781-41D6-A418-1E09A72C041B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47035F-CBD5-491D-84BE-5B8966682E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f t="shared" ref="C1:E1" si="0">1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15195,99 +15195,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>6.2211106767921756E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>4.5298704101903627E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>3.8102689903079197E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>5.0834549572901663E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>4.2482694084006595E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>3.5986449599341573E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>2.948322370907986E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>0.10201003796422271</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>0.108814797977761</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>9.1500970097290441E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>0.10447316768218584</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>9.8066919285010087E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>9.7504041934217162E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>8.7955836811309696E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>5.2193385060563931E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>8.4195137971937381E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>9.9989093210624269E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>9.4219812085224522E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>6.5204760667421008E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>6.6306539554178284E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>6.1758748282231914E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>3.9083376374142567E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>3.0559683733914027E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>3.1353857333961288E-2</v>
       </c>
     </row>
@@ -15296,99 +15296,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-0.25550035688325873</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-0.25043531981313621</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-0.25734557900561872</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-0.27451728788820856</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-0.27188106309992333</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-0.24952326639989209</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-0.15511508296474619</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-3.0413920409841644E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-3.268361520537677E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-2.0810253481372602E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-1.8331702338941391E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-8.3482859688222472E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-0.12073989623191103</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-0.15968130823609658</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-0.15534258211781493</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-0.16275657122169207</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-0.12796524996939335</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>4.1233859227568635E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-5.7531708306784697E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-6.7912161893899356E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-0.12842765877916795</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-0.16726326892159482</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-0.17977807840737706</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-0.20583730089808691</v>
       </c>
     </row>
@@ -15397,99 +15397,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>-0.90898095364558062</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>-0.94233061305654686</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>-0.95961502801450826</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>-0.94678174606400445</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>-0.98624550398394717</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>-0.79126085943342872</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>-2.9464197424640324E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>0.42459845747028008</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>0.53054771591932604</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>0.37698389660080422</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>0.22039780871374973</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>0.4414968191153143</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>0.27019798197884504</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>8.2804270699820839E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-0.33414494358645352</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>-0.32773248435359398</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>-0.27537191365866343</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>-0.13483369950416549</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>-0.33858315606524819</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>-0.1853499384406215</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>-0.26486233361424949</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>-0.42638409544020689</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>-0.67362805447665053</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>-0.76041701054371924</v>
       </c>
     </row>
@@ -15498,99 +15498,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
         <v>-2.3911378818615385</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
         <v>-2.390943718943312</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
         <v>-2.4394930570002398</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
         <v>-2.4852154406379108</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
         <v>-2.4473335570716817</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
         <v>-2.2598490597428591</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
         <v>-1.921834687354774</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
         <v>-1.8078005419285847</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
         <v>-1.8060151517971403</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
         <v>-2.0411425843428397</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
         <v>-2.1986558373942007</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
         <v>-2.2367277736471962</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
         <v>-2.2393738861208585</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
         <v>-2.2805515590705996</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
         <v>-2.371028251909117</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
         <v>-2.3002985609896669</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
         <v>-1.8895037063875226</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
         <v>-1.1606322095673278</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
         <v>-1.4822137249935001</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
         <v>-1.8338984355672254</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
         <v>-1.9161710207328566</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
         <v>-2.0477093212960389</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
         <v>-2.1862530430168654</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
         <v>-2.1533375498977687</v>
       </c>
     </row>
@@ -15599,99 +15599,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
         <v>-0.48299854851557128</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
         <v>-0.5124449162867184</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
         <v>-0.55040820927433731</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
         <v>-0.55237113354357747</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
         <v>-0.53493798735390263</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
         <v>-0.45091047249996147</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
         <v>-0.35405483092912066</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
         <v>-0.27809691813779808</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
         <v>-0.28144743674572198</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
         <v>-0.23575554362708212</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
         <v>-0.22416028384920728</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
         <v>-0.22839719329718294</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
         <v>-0.27218547167538354</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
         <v>-0.29290441599204808</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
         <v>-0.28785002986028885</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
         <v>-0.35332112347242228</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
         <v>-0.31612215626977402</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
         <v>-0.15226740626985383</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
         <v>-0.18766933894938237</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
         <v>-0.22876524504809312</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
         <v>-0.25196236488857093</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
         <v>-0.3238707639398562</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
         <v>-0.35462892279511626</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
         <v>-0.36357155138210878</v>
       </c>
     </row>
@@ -15700,99 +15700,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
         <v>3.8659514351725752E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
         <v>3.0540375946783174E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
         <v>2.3156374079500136E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
         <v>3.38213030117573E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
         <v>2.7495078735691333E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
         <v>4.0012309052224714E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
         <v>5.229739388373799E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
         <v>0.10498284099872525</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
         <v>0.11970824970637241</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
         <v>0.12211108688146978</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
         <v>0.11590328536818593</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
         <v>0.12238665481829678</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
         <v>0.12147726927874926</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
         <v>0.12496951529263917</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
         <v>0.10201508164625696</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
         <v>9.8999285776334434E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
         <v>8.4339544332275682E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
         <v>9.3196592537830011E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
         <v>7.9789573161359345E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
         <v>8.1613977337640975E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
         <v>7.0396965400395639E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
         <v>7.190272046353556E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
         <v>4.5548538961885023E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
         <v>4.7711607584203321E-2</v>
       </c>
     </row>
@@ -15801,99 +15801,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
         <v>-0.58293673274204694</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
         <v>-0.57073889004571854</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
         <v>-0.60068462546895551</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
         <v>-0.59932287795760697</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
         <v>-0.65425230173473448</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
         <v>-0.5857904835820299</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
         <v>-0.48780399647925005</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
         <v>-0.26106249729508091</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
         <v>-0.12427748555509857</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
         <v>-0.11653410876201033</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
         <v>-8.8573330422710983E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
         <v>-3.0066980227872308E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
         <v>-0.12085486303712629</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
         <v>-0.12866247638147574</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
         <v>-0.23218289778525897</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
         <v>-0.33179818253619831</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
         <v>-0.29945939212993167</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
         <v>-0.33402005531220902</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
         <v>-0.37937784111659456</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
         <v>-0.36062965023276033</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
         <v>-0.40241248156754322</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
         <v>-0.49375234675593033</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
         <v>-0.55707564779311214</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
         <v>-0.54868059770221567</v>
       </c>
     </row>
@@ -15902,99 +15902,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
         <v>-0.33849376989063379</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
         <v>-0.34907237029031807</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
         <v>-0.34087223649862847</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
         <v>-0.34378622402391468</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
         <v>-0.34003258288235827</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
         <v>-0.31349700599084118</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
         <v>-0.24943184525078366</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
         <v>-0.19259756994697852</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
         <v>-0.17964299317340471</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
         <v>-0.20516551312507314</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
         <v>-0.19179686498069448</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
         <v>-0.1766014798856225</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
         <v>-0.18907322697401205</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
         <v>-0.20267647519558452</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
         <v>-0.2437918925718075</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
         <v>-0.27309881752128873</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
         <v>-0.27237534503581956</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
         <v>-0.27128402675139129</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
         <v>-0.28311764375335036</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
         <v>-0.29859246505036408</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
         <v>-0.29774994641525115</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
         <v>-0.30341667423914259</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
         <v>-0.316662121788582</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
         <v>-0.32924922581729715</v>
       </c>
     </row>
@@ -16003,99 +16003,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
         <v>-0.39314005831232518</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
         <v>-0.43433937251947108</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
         <v>-0.45285970903821626</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
         <v>-0.43016236956175841</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
         <v>-0.4405548390919003</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
         <v>-0.4021757584238258</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
         <v>-0.24517959823172039</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
         <v>-2.5959384436142478E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
         <v>1.4399938275162305E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
         <v>-8.0802842198646786E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
         <v>-1.226505403707741E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
         <v>-5.9427548872358679E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
         <v>-5.2942521091696899E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
         <v>-9.5010355301518773E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
         <v>-0.18637036462630677</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
         <v>-0.20628008807565729</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
         <v>-0.16211440534891375</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
         <v>-5.1112029076847532E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
         <v>-0.13115057398136637</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
         <v>-0.1543471976630805</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
         <v>-0.2020576804672656</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
         <v>-0.27241852438227204</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
         <v>-0.33823271531192239</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
         <v>-0.35974301212295728</v>
       </c>
     </row>
@@ -16104,99 +16104,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
         <v>-0.19897628803350234</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
         <v>-0.21098376632073595</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
         <v>-0.20508201707273815</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
         <v>-0.20243989450515018</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
         <v>-0.20599652336872384</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
         <v>-0.19643183433688316</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
         <v>-0.14291076393977364</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
         <v>-0.11546183555934979</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
         <v>-7.6702804083793555E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
         <v>-4.3418025775260438E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
         <v>-5.5545737797014764E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
         <v>-4.2881988537955371E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
         <v>-5.1134335023716407E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
         <v>-7.5451145121963742E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
         <v>-9.2451761018260595E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
         <v>-9.7282976024378728E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
         <v>-9.9043952333212906E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
         <v>-6.6178302333832359E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
         <v>-7.9380998988121357E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
         <v>-0.10142313853454177</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
         <v>-0.11573121575327881</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
         <v>-0.1532582371238424</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
         <v>-0.18780337654752111</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
         <v>-0.19114527523559657</v>
       </c>
     </row>
@@ -16205,99 +16205,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
         <v>-0.12457558300917791</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
         <v>-0.12450468763716936</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
         <v>-0.12679293094267363</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
         <v>-0.12922467964761009</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
         <v>-0.12505469913210707</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
         <v>-0.10092139349230143</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
         <v>-7.9700283031382615E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
         <v>-7.0513242742888671E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
         <v>-4.9487540812824291E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
         <v>-3.200661427442883E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
         <v>-7.5181139403129413E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
         <v>-6.9505744098561639E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
         <v>-7.8337035101290114E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
         <v>-7.8176808399294292E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
         <v>-8.6979835851223986E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
         <v>-8.5321050252011019E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
         <v>-7.5641273206011841E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
         <v>-4.8600811089315528E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
         <v>-6.7747458283346079E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
         <v>-8.117398252108779E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
         <v>-8.6352643956233627E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
         <v>-8.5803554938319079E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
         <v>-9.3596959219084452E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
         <v>-0.10228383805842704</v>
       </c>
     </row>
@@ -16306,99 +16306,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
         <v>-3.2280945141759589E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
         <v>5.3078424807982534E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
         <v>0.11343380362084833</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
         <v>0.10105908703897408</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
         <v>7.7805946290992425E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
         <v>-7.7604639674707113E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
         <v>-2.562079494588425E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
         <v>9.0672337181980645E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
         <v>0.20081769600985672</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
         <v>0.2416398053427013</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
         <v>0.1127731611453763</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
         <v>-2.9299842259520345E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
         <v>0.37178278744722826</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
         <v>0.4173355160487992</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
         <v>0.3880446268363405</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
         <v>0.45000253257110534</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
         <v>0.24474903133090359</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
         <v>0.3414736731307606</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
         <v>0.37400142501034084</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
         <v>0.33339924216806094</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
         <v>0.37049674210522254</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
         <v>0.46618108888651566</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
         <v>0.44057025427800112</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
         <v>0.29973563340018239</v>
       </c>
     </row>
@@ -16407,99 +16407,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
         <v>3.244443574959003E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
         <v>2.6764781271376065E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
         <v>3.745067874349417E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
         <v>4.6458961117099233E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
         <v>4.8513622574124483E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
         <v>5.9146591212063782E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
         <v>0.21412324420637749</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
         <v>0.27899027422359318</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
         <v>0.28993213670742146</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
         <v>0.27118708856814056</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
         <v>0.25092737548018984</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
         <v>0.29332770636550914</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
         <v>0.33153949694077489</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
         <v>0.29114376134708569</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
         <v>0.27781991497600961</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
         <v>0.28295482263938843</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
         <v>0.25754221023657109</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
         <v>0.25832100983854334</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
         <v>0.223369630873721</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
         <v>0.1686248943917579</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
         <v>0.19066357363047928</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
         <v>0.16496337588730647</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
         <v>7.2560142984853693E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
         <v>5.0308820552905094E-2</v>
       </c>
     </row>
@@ -16508,99 +16508,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
         <v>0.64156131100151159</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
         <v>0.65011993884380881</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
         <v>0.67136426056336052</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
         <v>0.66194273234141598</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
         <v>0.66983342193472006</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
         <v>0.64508708357342115</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
         <v>0.56037465210160819</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
         <v>0.44544571314435788</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
         <v>0.37135812323564554</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
         <v>0.31678403890663759</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
         <v>0.41627279639081249</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
         <v>0.40250710312360477</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
         <v>0.35071081640242363</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
         <v>0.30756809174090277</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
         <v>0.41845750447070301</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
         <v>0.4959583245607459</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
         <v>0.47555804839471538</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
         <v>0.49978796798031072</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
         <v>0.53224309249349133</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
         <v>0.57776432142543133</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
         <v>0.55798326415284716</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
         <v>0.60114944586748631</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
         <v>0.62829198857311586</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
         <v>0.62194640698945169</v>
       </c>
     </row>
@@ -16609,99 +16609,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
         <v>6.2211106767921756E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
         <v>4.5747206122714545E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
         <v>3.9269098777663262E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
         <v>4.9339415761933972E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
         <v>4.3770048450188628E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
         <v>3.4928024611125645E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
         <v>2.948322370907986E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
         <v>0.1040502387235072</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
         <v>0.10454755099824097</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
         <v>9.3330989499236267E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
         <v>0.10767132587653847</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
         <v>9.7076344342737278E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
         <v>9.8498981137627534E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
         <v>8.7067394015235861E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
         <v>5.3775002789671941E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
         <v>8.2544252913664101E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
         <v>0.10097908423251165</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
         <v>9.1448641141541442E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
         <v>6.5850352357197453E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
         <v>6.6306539554178284E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
         <v>6.1134922542007357E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
         <v>3.869641225162631E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
         <v>3.0559683733914027E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
         <v>3.1673794653695589E-2</v>
       </c>
     </row>
@@ -17244,99 +17244,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>6.411552840367446E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>4.3953198039470842E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>3.8880295819468579E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>5.0834549572901663E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>4.2053575961945935E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>3.4575216281720333E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>2.8607484390988376E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>0.10098993758458051</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>0.106681174488001</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>9.241597979826334E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>0.10660527314508758</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>0.10103864411182857</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>9.8498981137627534E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>8.9732722403457366E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>5.3775002789671941E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>8.2544252913664101E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>9.7019120144962154E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>9.3296088437330144E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>6.5204760667421008E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>6.764606560577785E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>6.3006399762681048E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>3.7922484006593787E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>3.1485734756153842E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>3.1353857333961288E-2</v>
       </c>
     </row>
@@ -17345,99 +17345,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-0.24548073504469958</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-0.24793096661500488</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-0.2521986674255064</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-0.26913459596883188</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-0.26921556248129663</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-0.23973804026656301</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-0.15201278130545126</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-3.0115744719549083E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.2363187605324056E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-2.144730205733299E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-1.9079935087469607E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-8.4317688285104692E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-0.12317908605477793</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-0.15651930213241147</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-0.15377346512672591</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-0.15796961324458347</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-0.12796524996939335</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>4.2058536412120012E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-5.8693965040255104E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-6.9970106193714493E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-0.12969921975717949</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-0.16559063623237885</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-0.17977807840737706</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-0.21213844276231406</v>
       </c>
     </row>
@@ -17446,99 +17446,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>-0.89115779769174575</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>-0.9711774685582778</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>-0.95961502801450826</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>-0.96610382251429028</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>-0.98624550398394717</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>-0.81548313064057443</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>-2.9464197424640324E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>0.4204357274950814</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>0.54115867023771247</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>0.36959205549098456</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>0.22257996523566806</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>0.43716841892790925</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>0.27838579961456761</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>8.4460356113817248E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-0.32104122030855342</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>-0.32117783466652211</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>-0.27537191365866343</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>-0.1389195691861099</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>-0.32530538523916003</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>-0.1853499384406215</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>-0.26226564406901165</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>-0.42638409544020689</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>-0.67362805447665053</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>-0.75273603063923711</v>
       </c>
     </row>
@@ -17547,99 +17547,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
         <v>-2.3911378818615385</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
         <v>-2.4387625933221777</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
         <v>-2.4394930570002398</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
         <v>-2.3877560115932863</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
         <v>-2.4473335570716817</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
         <v>-2.2598490597428591</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
         <v>-1.9606596305336583</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
         <v>-1.7369064030294248</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
         <v>-1.7877725745062603</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
         <v>-2.0411425843428397</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
         <v>-2.1339894892355473</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
         <v>-2.2823752792318333</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
         <v>-2.2850753940008759</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
         <v>-2.2805515590705996</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
         <v>-2.3475527246624921</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
         <v>-2.3002985609896669</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
         <v>-1.8895037063875226</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
         <v>-1.1721236175828458</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
         <v>-1.497035862243435</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
         <v>-1.7619808498587064</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
         <v>-1.8968157578971707</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
         <v>-2.0272322280830783</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
         <v>-2.164606973284025</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
         <v>-2.1750884342401706</v>
       </c>
     </row>
@@ -17648,99 +17648,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
         <v>-0.48792710513307713</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
         <v>-0.507268705011095</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
         <v>-0.5288235736165201</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
         <v>-0.55237113354357747</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
         <v>-0.54034140136757836</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
         <v>-0.46001977497470825</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
         <v>-0.35405483092912066</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
         <v>-0.28090597791696775</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
         <v>-0.27592885955462937</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
         <v>-0.22882155704981499</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
         <v>-0.22644763368440329</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
         <v>-0.22839719329718294</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
         <v>-0.27218547167538354</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
         <v>-0.29000437226935455</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
         <v>-0.28785002986028885</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
         <v>-0.34282643663660778</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
         <v>-0.30372520896507699</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
         <v>-0.15692865340056364</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
         <v>-0.18030975702979873</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
         <v>-0.22647759259761219</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
         <v>-0.24949214562495745</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
         <v>-0.32707740516698347</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
         <v>-0.35462892279511626</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
         <v>-0.37841120654056221</v>
       </c>
     </row>
@@ -17749,99 +17749,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
         <v>3.8659514351725752E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
         <v>3.0240960496324517E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
         <v>2.2248280978343266E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
         <v>3.3144876951522156E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
         <v>2.8328262939803193E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
         <v>3.9212062871180224E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
         <v>5.3364687636467338E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
         <v>0.10602227506801953</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
         <v>0.11970824970637241</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
         <v>0.12087764155943474</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
         <v>0.11824476588067456</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
         <v>0.12238665481829678</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
         <v>0.12147726927874926</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
         <v>0.12374432396624076</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
         <v>0.1051064477567496</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
         <v>9.6058712931492818E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
         <v>8.3487629743060773E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
         <v>9.5060524388586615E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
         <v>7.8999577387484518E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
         <v>8.4087128166054334E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
         <v>7.1093965057825309E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
         <v>7.190272046353556E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
         <v>4.4637568182647323E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
         <v>4.5840564149528681E-2</v>
       </c>
     </row>
@@ -17850,99 +17850,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
         <v>-0.5888249825677242</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
         <v>-0.57656275627067499</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
         <v>-0.60068462546895551</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
         <v>-0.60543841752860295</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
         <v>-0.65425230173473448</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
         <v>-0.5857904835820299</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
         <v>-0.492731309575</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
         <v>-0.253384188551108</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
         <v>-0.12554562316280365</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
         <v>-0.11653410876201033</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
         <v>-9.036269063327082E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
         <v>-3.0367650030151034E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
         <v>-0.11963410684483211</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
         <v>-0.12738859047670864</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
         <v>-0.22986106880740639</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
         <v>-0.33511616436156033</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
         <v>-0.29945939212993167</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
         <v>-0.33736025586533108</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
         <v>-0.37937784111659456</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
         <v>-0.35341705722810512</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
         <v>-0.40651873137945699</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
         <v>-0.49375234675593033</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
         <v>-0.5516141218343561</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
         <v>-0.5378156353714787</v>
       </c>
     </row>
@@ -17951,99 +17951,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
         <v>-0.33849376989063379</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
         <v>-0.3353832577299134</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
         <v>-0.33405479176865593</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
         <v>-0.34038240002367792</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
         <v>-0.33003162456228896</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
         <v>-0.31349700599084118</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
         <v>-0.24943184525078366</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
         <v>-0.19454299994644292</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
         <v>-0.17784656324167067</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
         <v>-0.20106220286257168</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
         <v>-0.19567154912171858</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
         <v>-0.17836749468447874</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
         <v>-0.18532920267749697</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
         <v>-0.19862294569167285</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
         <v>-0.24132934820239527</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
         <v>-0.27309881752128873</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
         <v>-0.27237534503581956</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
         <v>-0.2659120658256211</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
         <v>-0.28311764375335036</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
         <v>-0.28981033372535336</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
         <v>-0.3007274458794037</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
         <v>-0.30341667423914259</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
         <v>-0.31986072907937579</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
         <v>-0.32272943916744967</v>
       </c>
     </row>
@@ -18052,99 +18052,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
         <v>-0.40918659130466495</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
         <v>-0.43863976234639651</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
         <v>-0.45734346853364427</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
         <v>-0.44333060536466934</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
         <v>-0.44505029663365436</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
         <v>-0.39034705964665439</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
         <v>-0.23796843357784625</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
         <v>-2.7018951147821754E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
         <v>1.4687937040665552E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
         <v>-8.3251413174363336E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
         <v>-1.2143617858492483E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
         <v>-6.0033952432280721E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
         <v>-5.188367066986297E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
         <v>-9.5979848722962835E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
         <v>-0.18637036462630677</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
         <v>-0.19819067285700406</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
         <v>-0.16535669345589202</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
         <v>-5.1112029076847532E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
         <v>-0.1351653874705919</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
         <v>-0.1527881350604231</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
         <v>-0.2103049327312356</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
         <v>-0.27786689486991745</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
         <v>-0.34848219153349574</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
         <v>-0.36693787236541642</v>
       </c>
     </row>
@@ -18153,99 +18153,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
         <v>-0.20098614952879026</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
         <v>-0.20477836142894962</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
         <v>-0.20715355259872539</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
         <v>-0.20657132092362265</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
         <v>-0.20599652336872384</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
         <v>-0.19450603203946273</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
         <v>-0.14435430700987237</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
         <v>-0.11781819955035693</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
         <v>-7.4424502972393738E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
         <v>-4.4733723526025906E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
         <v>-5.6106805855570471E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
         <v>-4.2448837138582086E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
         <v>-5.1650843458299407E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
         <v>-7.4704104081152217E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
         <v>-9.5253329533965467E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
         <v>-9.8246173806798329E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
         <v>-9.9043952333212906E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
         <v>-6.6178302333832359E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
         <v>-8.2621039763146747E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
         <v>-0.10041894904410076</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
         <v>-0.11927400807225673</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
         <v>-0.14875064191431761</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
         <v>-0.18592534278204589</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
         <v>-0.19305672798795256</v>
       </c>
     </row>
@@ -18254,99 +18254,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
         <v>-0.12709226145380778</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
         <v>-0.1283160556260623</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
         <v>-0.128086736360456</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
         <v>-0.13183527923645069</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
         <v>-0.12633076749059796</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
         <v>-0.10401082390533108</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
         <v>-7.657478173603427E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
         <v>-7.1211393661135103E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
         <v>-4.9487540812824291E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
         <v>-3.2329913408513974E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
         <v>-7.2232859426536108E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
         <v>-6.8810686657576031E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
         <v>-7.6770294399264305E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
         <v>-7.8176808399294292E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
         <v>-8.6979835851223986E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
         <v>-8.7062296175521442E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
         <v>-7.5641273206011841E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
         <v>-5.0584517664389629E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
         <v>-6.8424932866179539E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
         <v>-7.7990689088888274E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
         <v>-8.3787713937731642E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
         <v>-8.9305740854168827E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
         <v>-9.2651535388588641E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
         <v>-0.10027827260630102</v>
       </c>
     </row>
@@ -18355,99 +18355,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
         <v>-3.2926564044594785E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
         <v>5.4703274547002412E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
         <v>0.11687119160935888</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
         <v>9.9077536312719677E-2</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
         <v>7.8576302194863626E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
         <v>-7.6052546881212962E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
         <v>-2.6133210844801933E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
         <v>9.4373248903694154E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
         <v>0.20081769600985672</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
         <v>0.23216373454494829</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
         <v>0.11622540077227557</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
         <v>-2.9299842259520345E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
         <v>0.37178278744722826</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
         <v>0.4049394116117061</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
         <v>0.39980355492229025</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
         <v>0.45450255789681637</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
         <v>0.24474903133090359</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
         <v>0.3448884098620682</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
         <v>0.3593347024609157</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
         <v>0.32032476208303895</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
         <v>0.37416502668052176</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
         <v>0.48030778854974332</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
         <v>0.44493233600352589</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
         <v>0.29679704875900415</v>
       </c>
     </row>
@@ -18456,99 +18456,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
         <v>3.2768880107085924E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
         <v>2.5715182005831904E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
         <v>3.7825185530929104E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
         <v>4.6458961117099233E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
         <v>4.9493695757440136E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
         <v>5.9744031527337149E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
         <v>0.22067803739636863</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
         <v>0.27078467792289923</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
         <v>0.29286074414891056</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
         <v>0.27118708856814056</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
         <v>0.25092737548018984</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
         <v>0.28182465905705778</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
         <v>0.33153949694077489</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
         <v>0.29402637284557165</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
         <v>0.28065481206760146</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
         <v>0.2772957261866007</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
         <v>0.24989244161568283</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
         <v>0.25832100983854334</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
         <v>0.23020747671679406</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
         <v>0.1703455565794289</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
         <v>0.18688805732096483</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
         <v>0.16331374212843339</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
         <v>7.2560142984853693E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
         <v>5.236224179996244E-2</v>
       </c>
     </row>
@@ -18557,99 +18557,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
         <v>0.65439253722154167</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
         <v>0.66325367498206755</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
         <v>0.65142274787335952</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
         <v>0.67531531279275769</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
         <v>0.6632664276020267</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
         <v>0.63870008274596146</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
         <v>0.57735570216529331</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
         <v>0.44094626149643512</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
         <v>0.35679505957934576</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
         <v>0.31678403890663759</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
         <v>0.41215128355525987</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
         <v>0.40250710312360477</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
         <v>0.35786818000247311</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
         <v>0.29843240584760866</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
         <v>0.41025245536343424</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
         <v>0.4959583245607459</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
         <v>0.48031362887866252</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
         <v>0.49978796798031072</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
         <v>0.51658888389074153</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
         <v>0.56077125314821274</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
         <v>0.57506438448405672</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
         <v>0.60728362388654233</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
         <v>0.64752541679474185</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
         <v>0.63463919080556286</v>
       </c>
     </row>
@@ -18658,99 +18658,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
         <v>6.2845913979839324E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
         <v>4.4850202081092694E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
         <v>3.8102689903079197E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
         <v>4.9837793698923209E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
         <v>4.3770048450188628E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
         <v>3.528083294053095E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
         <v>2.8607484390988376E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
         <v>9.9969837204938281E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
         <v>0.106681174488001</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
         <v>9.3330989499236267E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
         <v>0.10873737860798934</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
         <v>9.8066919285010087E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
         <v>9.8498981137627534E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
         <v>8.7067394015235861E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
         <v>5.2720590970266601E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
         <v>8.3369695442800734E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
         <v>0.10097908423251165</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
         <v>9.3296088437330144E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
         <v>6.4559168977644563E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
         <v>6.6976302579978067E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
         <v>6.2382574022456491E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
         <v>3.8309448129110045E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
         <v>3.0868367407993966E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
         <v>3.2313669293164184E-2</v>
       </c>
     </row>
@@ -37005,99 +37005,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>4.8440274949240344E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>5.4044934860722704E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>4.9912610211701187E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>5.194985960809715E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>5.0317391205308253E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>5.3764701865148583E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>5.3724668580066574E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>0.10062366205364927</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>0.12068701009392004</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>0.11273373079095933</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>0.11231560536899163</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>0.11098116253292441</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>0.12046015481178857</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>0.11453967676243702</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>8.0288977303378153E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>0.10602593146832809</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>0.10737371873275597</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>0.10063478241061651</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>7.9744079811984045E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>7.0898947880251778E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>7.6677085360422878E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>7.388809983304237E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>5.1522837900555632E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>5.1598456327932793E-2</v>
       </c>
     </row>
@@ -37106,99 +37106,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>5.0628514081346885E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-3.0990787407369914E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-3.3240943588763103E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-4.9554575903863772E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-5.9399009197458989E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-4.6025921892133538E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-5.881090019550396E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>0.14533963335271502</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>0.18921767888988225</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>0.24534373364167844</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>0.13807776567640059</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>0.12654571524676045</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>8.7807230987548099E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>0.11526936438318773</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>5.062851408134688E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>4.346892623145944E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>5.2162711477751332E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>9.2972362222109736E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>0.17466837358064677</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>0.17540990232224221</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>0.14175983942777123</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>0.10775179714080595</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>5.1139913213481693E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>1.0125702816269377E-2</v>
       </c>
     </row>
@@ -37207,99 +37207,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-0.14639004717011991</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-0.34671326961344184</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-0.59296278136503677</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-0.54764078533713589</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-0.56456099718755215</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-0.53785878786111396</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-3.0214664018600599E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>0.62551908184507898</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>0.8552260650464899</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>0.83755048659560871</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>0.72039312686348489</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>0.86610334409318612</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>0.79268171052798675</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>0.70570124648444033</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>0.51236516509541963</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>0.31974668197684092</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>0.38512366124708786</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>0.34399394985176784</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>6.484822264992153E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>0.27389592932861445</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>0.38493481959697162</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>0.25682464415810513</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-0.24031988393794454</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-0.49208357187293406</v>
       </c>
     </row>
@@ -37308,99 +37308,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
         <v>-2.2002574945478779</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
         <v>-2.243627954776946</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
         <v>-2.2391851271437249</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
         <v>-2.2848827827997193</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
         <v>-2.3143958520775483</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
         <v>-2.3772301286045407</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
         <v>-2.1355191490352192</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
         <v>-1.4409570957082303</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
         <v>-1.1111300347466782</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
         <v>-1.1635977134628199</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
         <v>-1.4703643833757452</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
         <v>-1.6132753389110428</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
         <v>-1.466133118963153</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
         <v>-1.6239592815528374</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
         <v>-1.497550257226649</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
         <v>-1.7877092143201503</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
         <v>-2.0500476079008592</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
         <v>-1.8234633986065534</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
         <v>-1.24621315111868</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
         <v>-1.1318632303683795</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
         <v>-1.1431818626720633</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
         <v>-1.5064359124930926</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
         <v>-1.8511781805090315</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
         <v>-1.905973054652099</v>
       </c>
     </row>
@@ -37409,99 +37409,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
         <v>-0.3061285097557272</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
         <v>-0.40534243601979458</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
         <v>-0.47747964920975805</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
         <v>-0.46474955276447033</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
         <v>-0.47404454381975969</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
         <v>-0.50344500465768594</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
         <v>-0.46717433303976325</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
         <v>-0.18003993544049698</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
         <v>5.9407116744675768E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
         <v>0.20004437271166339</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
         <v>0.34007543360982762</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
         <v>0.35007765224541076</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
         <v>0.30983303517631355</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
         <v>0.25338953876810688</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
         <v>0.1700713943087373</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
         <v>0.10992337247994428</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
         <v>8.9110675117013663E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
         <v>8.503569715436865E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
         <v>8.3351821963193032E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
         <v>2.0206502294107403E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
         <v>0.1749209548593231</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
         <v>8.5877634749956466E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
         <v>4.8091475459975636E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
         <v>-7.5572318579961717E-2</v>
       </c>
     </row>
@@ -37510,99 +37510,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
         <v>5.249164339954044E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
         <v>5.8232916896365186E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
         <v>4.4737196079153795E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
         <v>5.1555476148254453E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
         <v>5.4388831899934195E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
         <v>5.4194142250330472E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
         <v>5.4504817223102367E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
         <v>0.10098179314977879</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
         <v>0.1146349226198613</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
         <v>0.11555866287223643</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
         <v>9.9991775569878996E-2</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
         <v>0.11589833417580039</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
         <v>0.12076971774886379</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
         <v>0.11236492415214128</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
         <v>9.8794641341464623E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
         <v>8.6119102452371032E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
         <v>0.10392284955868612</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
         <v>0.10170255908660962</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
         <v>8.2179743797623342E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
         <v>7.6264492316046317E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
         <v>8.8904821374892432E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
         <v>6.8690236479867384E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
         <v>5.387104027864769E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
         <v>5.9618527274927856E-2</v>
       </c>
     </row>
@@ -37611,99 +37611,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
         <v>-0.5391084269544919</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
         <v>-0.5325575374803142</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
         <v>-0.58846342378835381</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
         <v>-0.57997704424226015</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
         <v>-0.54350050057922472</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
         <v>-0.60525007806593445</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
         <v>-0.50851279543304817</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
         <v>-0.23449206640522635</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
         <v>-4.1352489805747066E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
         <v>-3.3498866629318051E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
         <v>6.9305432959766905E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
         <v>2.2779229307936282E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
         <v>7.4441925842929019E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
         <v>-5.895800526759977E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
         <v>-0.10526088314190161</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
         <v>-0.1526059479780045</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
         <v>-0.19898326777814929</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
         <v>-0.176687910988192</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
         <v>-0.20791629887930077</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
         <v>-0.14888385168585802</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
         <v>-0.28194879413009366</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
         <v>-0.34652716479883455</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
         <v>-0.38724689823491681</v>
       </c>
     </row>
@@ -37712,99 +37712,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
         <v>-0.32421764002944264</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
         <v>-0.33637400651959298</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
         <v>-0.33299386281583471</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
         <v>-0.33463422667207038</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
         <v>-0.33359588187418387</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
         <v>-0.32586352699630539</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
         <v>-0.28224199926381693</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
         <v>-0.22865677996011941</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
         <v>-0.22592284019972664</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
         <v>-0.2203721140195353</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
         <v>-0.22083605531220804</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
         <v>-0.21484900339247934</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
         <v>-0.21762160492726143</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
         <v>-0.22354237951946551</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
         <v>-0.25130153353104906</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
         <v>-0.26234775478516109</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
         <v>-0.26847288447056628</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
         <v>-0.26956646037472332</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
         <v>-0.27171495040864813</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
         <v>-0.29238243037509176</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
         <v>-0.31097322074576234</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
         <v>-0.3106860189931554</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
         <v>-0.3284372965485135</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
         <v>-0.32151131582218517</v>
       </c>
     </row>
@@ -37813,99 +37813,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
         <v>1.8643566761106883E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
         <v>-0.16332144963683942</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
         <v>-0.20175002602197814</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
         <v>-0.26633666801581274</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
         <v>-0.24978574650340152</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
         <v>-0.27965350141660339</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
         <v>-0.53676350629043956</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
         <v>-0.17121642943873674</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
         <v>-0.26100993465549643</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
         <v>-8.7320379013755764E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
         <v>7.6857152770277382E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
         <v>0.24731262030039752</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
         <v>0.24978574650340152</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
         <v>0.20175002602197814</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
         <v>0.43812381888601187</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
         <v>0.37287133522213783</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
         <v>0.33625004336996361</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
         <v>0.28136566571099081</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
         <v>0.27033171803604994</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
         <v>0.39389290794767157</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
         <v>0.34490598508047748</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
         <v>-3.8809057339446999E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
         <v>-5.6501421714783132E-2</v>
       </c>
     </row>
@@ -37914,99 +37914,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
         <v>-0.16712523638165819</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
         <v>-0.19028957147083686</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
         <v>-0.18663613607086574</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
         <v>-0.18850172010489358</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
         <v>-0.19044503680700584</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
         <v>-0.19821830361545506</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
         <v>-6.2807995812269701E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
         <v>5.6356184361256841E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
         <v>0.12312854624583564</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
         <v>0.129502625028764</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
         <v>5.8299501063369133E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
         <v>0.13797548584997363</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
         <v>0.14769206936053517</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
         <v>0.14469936163928218</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
         <v>0.11271236872251368</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
         <v>4.809708837727953E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
         <v>2.3786196433854611E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
         <v>2.3552998429601135E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
         <v>2.4757854784910764E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
         <v>4.809708837727953E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
         <v>7.334077233771838E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
         <v>9.8137493456671374E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
         <v>-7.2369113986662223E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
         <v>-0.12188482355648377</v>
       </c>
     </row>
@@ -38015,99 +38015,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
         <v>-0.11217972178127594</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
         <v>-0.12293375266673086</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
         <v>-0.12593761218841357</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
         <v>-0.12676073383670386</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
         <v>-0.12361790572505003</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
         <v>-0.12720970928122585</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
         <v>-9.7427671461268253E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
         <v>-8.3381153982652237E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
         <v>-7.1258816980558956E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
         <v>-5.2914963104375455E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
         <v>-5.3973262366462958E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
         <v>-5.7148160152725488E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
         <v>-6.8415305831919765E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
         <v>-6.9142218456383922E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
         <v>-7.7523093420794095E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
         <v>-7.7523093420794095E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
         <v>-8.1777670252216619E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
         <v>-6.1541705574119088E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
         <v>-5.6143310348319174E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
         <v>-6.3070360063801054E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
         <v>-5.2337708961418629E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
         <v>-6.4951780974178863E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
         <v>-7.5898229907285994E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
         <v>-8.8319883872393951E-2</v>
       </c>
     </row>
@@ -38116,99 +38116,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
         <v>-0.21012201775752887</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
         <v>-0.25701108598931488</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
         <v>-0.29305150114096734</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
         <v>-0.29115325321026964</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
         <v>-0.2899895112540124</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
         <v>-0.29625001674373203</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
         <v>-0.22280581068664826</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
         <v>6.7505930780989232E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
         <v>9.3338913483892436E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
         <v>0.13685270460747623</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
         <v>0.10565270042367059</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
         <v>0.13689429388191743</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
         <v>0.14341175433812167</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
         <v>0.12599007954403496</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
         <v>5.8139538881152558E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
         <v>3.7344968846129367E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
         <v>2.8457373439904888E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
         <v>3.4318051781914514E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
         <v>3.0007513668760432E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
         <v>3.1717367858996294E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
         <v>7.2675923456428218E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
         <v>1.0999897093666284E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
         <v>-0.11554292311423474</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
         <v>-0.17154486805209809</v>
       </c>
     </row>
@@ -38217,99 +38217,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
         <v>7.6857152770277395E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
         <v>7.1367356143828983E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
         <v>5.2914029859876262E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
         <v>4.7981366059379318E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
         <v>4.3501655775916075E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
         <v>5.6827548247047388E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
         <v>0.18299322088161282</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
         <v>0.23925910676753845</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
         <v>0.31612078907298613</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
         <v>0.30148133140245714</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
         <v>0.29124911145266597</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
         <v>0.28187297365006841</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
         <v>0.31429085686416997</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
         <v>0.2853607157312279</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
         <v>0.25701488463525923</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
         <v>0.23881521232084538</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
         <v>0.24338098377254508</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
         <v>0.24658336513797327</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
         <v>0.20337612914812905</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
         <v>0.18756805140365315</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
         <v>0.19309408431146419</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
         <v>0.13953233092222977</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
         <v>6.1302728995340304E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
         <v>6.5225306452852086E-2</v>
       </c>
     </row>
@@ -38318,99 +38318,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
         <v>0.66289294264364229</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
         <v>0.62922037818735743</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
         <v>0.6840096356077533</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
         <v>0.69171437493249643</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
         <v>0.68486571775494698</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
         <v>0.66945623910546048</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
         <v>0.57913957257652715</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
         <v>0.5620179296326534</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
         <v>0.4280410735968419</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
         <v>0.30262503903296717</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
         <v>0.3314464713218212</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
         <v>0.39550995200348193</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
         <v>0.28821432288854021</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
         <v>0.39550995200348193</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
         <v>0.46570868807336402</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
         <v>0.45201137371826505</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
         <v>0.45201137371826505</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
         <v>0.43788601828956919</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
         <v>0.41377303781028052</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
         <v>0.50851279543304817</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
         <v>0.54218535988933303</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
         <v>0.62579604959858282</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
         <v>0.57642864577708042</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
         <v>0.57328967790403695</v>
       </c>
     </row>
@@ -38419,99 +38419,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
         <v>4.941886636235631E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
         <v>5.4585384209329936E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
         <v>5.194985960809715E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
         <v>5.0931234909899176E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
         <v>4.8822815228912957E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
         <v>5.3764701865148583E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
         <v>5.5352688840068581E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
         <v>0.10265646330725836</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
         <v>0.11832059813129416</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
         <v>0.1115950062375153</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
         <v>0.11231560536899163</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
         <v>0.11209097415825364</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
         <v>0.1169172090820301</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
         <v>0.11339427999481265</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
         <v>8.1894756849445735E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
         <v>0.10602593146832809</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
         <v>0.10843682485882288</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
         <v>9.9638398426352956E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
         <v>8.0533625156657157E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
         <v>7.0182796891562385E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
         <v>7.5925349229438346E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
         <v>7.6149980440176304E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
         <v>5.2043270606621859E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
         <v>5.0566487201374133E-2</v>
       </c>
     </row>
@@ -39054,99 +39054,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>4.8929570655798331E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>5.4585384209329936E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>5.0421922560800185E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>5.194985960809715E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>5.0317391205308253E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>5.3237596944902016E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>5.3181995160065894E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>0.10265646330725836</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>0.11595418616866826</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>0.1115950062375153</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>0.11120356967226892</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>0.10876153928226592</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>0.1192791729018691</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>0.11453967676243702</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>8.0288977303378153E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>0.1070756931660343</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>0.1052475064806222</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>9.7645630457825913E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>7.8954534467310933E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>7.233124985763062E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>7.5925349229438346E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>7.4642060035420343E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>5.2043270606621859E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>5.1598456327932793E-2</v>
       </c>
     </row>
@@ -39155,99 +39155,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>5.1139913213481695E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-3.0990787407369914E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-3.3905762460538363E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-4.8097088377279544E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-5.9987118199414026E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-4.6025921892133538E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-5.7634682191593872E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>0.14682269083590599</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>0.18732550210098345</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>0.24048544188639767</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>0.13531621036287259</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>0.12779864312049075</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>8.6937852462918894E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>0.11762180039100791</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>5.0117114949212067E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>4.346892623145944E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>5.0117114949212067E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>9.389288065995241E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>0.17819702759237702</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>0.17540990232224221</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>0.14605559213770369</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>0.11105032154307551</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>5.2162711477751325E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>1.0330262469123302E-2</v>
       </c>
     </row>
@@ -39256,99 +39256,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-0.14639004717011991</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-0.33651582050716417</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-0.59889240917868702</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-0.53668796963039322</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-0.55897128434411103</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-0.5431841223943924</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-3.051681065878661E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>0.63190192961900826</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>0.83845692651616655</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>0.85447069844602519</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>0.69920509372044115</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>0.8926167117695083</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>0.80869548245784517</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>0.71268838753874153</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>0.49227241352305029</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>0.31034236780105146</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>0.39679407522427235</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>0.34051926348962869</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>6.3564099429131007E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>0.28228049859377607</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>0.40064644488664397</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>0.25939289059968618</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-0.24031988393794454</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-0.48233934272693535</v>
       </c>
     </row>
@@ -39357,99 +39357,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
         <v>-2.1562523446569197</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
         <v>-2.243627954776946</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
         <v>-2.3305804384557138</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
         <v>-2.2391851271437249</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
         <v>-2.3611513238366912</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
         <v>-2.4492674052289214</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
         <v>-2.1355191490352192</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
         <v>-1.4850680272095027</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
         <v>-1.1221313222194176</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
         <v>-1.1519617363281915</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
         <v>-1.4556607395419878</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
         <v>-1.5973023157535078</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
         <v>-1.4809425444072253</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
         <v>-1.5757228672492878</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
         <v>-1.5126770275016659</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
         <v>-1.7877092143201503</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
         <v>-2.0098505959812343</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
         <v>-1.7698321221769489</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
         <v>-1.283977186001064</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
         <v>-1.1092259657610117</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
         <v>-1.1545004949757471</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
         <v>-1.5064359124930926</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
         <v>-1.8511781805090315</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
         <v>-1.8867208015748049</v>
       </c>
     </row>
@@ -39458,99 +39458,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
         <v>-0.3061285097557272</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
         <v>-0.40136849056862017</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
         <v>-0.4681173031468216</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
         <v>-0.46010205723682562</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
         <v>-0.46939704829211498</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
         <v>-0.49835970158033555</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
         <v>-0.46259419251976552</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
         <v>-0.18003993544049698</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
         <v>6.1225701951145434E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
         <v>0.20408567317048484</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
         <v>0.33340728785277213</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
         <v>0.35714992804834839</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
         <v>0.3067347048245504</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
         <v>0.25850851934928071</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
         <v>0.16670364392638606</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
         <v>0.1066903321128871</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
         <v>9.0929260323483321E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
         <v>8.250988436760523E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
         <v>8.503569715436865E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
         <v>2.0004437271166329E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
         <v>0.17670586256196924</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
         <v>8.503569715436865E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
         <v>4.6677020299388104E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
         <v>-7.3349603327609897E-2</v>
       </c>
     </row>
@@ -39559,99 +39559,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
         <v>5.1961424779343061E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
         <v>5.8821128178146651E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
         <v>4.5631940000736879E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
         <v>5.1555476148254453E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
         <v>5.3311825327658262E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
         <v>5.4194142250330472E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
         <v>5.3970456269934707E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
         <v>9.9001757989979219E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
         <v>0.11122992491828126</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
         <v>0.11329280673748669</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
         <v>0.10098179314977877</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
         <v>0.11589833417580039</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
         <v>0.12446674992484939</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
         <v>0.11236492415214128</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
         <v>9.8794641341464623E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
         <v>8.5249212528609716E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
         <v>0.10816459852026516</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
         <v>0.10375715623987444</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
         <v>8.2179743797623342E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
         <v>7.4021419012633205E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
         <v>8.9785067131079491E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
         <v>6.9384077252391291E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
         <v>5.2814745371223229E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
         <v>5.9028244826661247E-2</v>
       </c>
     </row>
@@ -39660,99 +39660,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
         <v>-0.52853767348479597</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
         <v>-0.5325575374803142</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
         <v>-0.56538642677704576</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
         <v>-0.60364957666031149</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
         <v>-0.54904642405452286</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
         <v>-0.61124265309629033</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
         <v>-0.50337630254988597</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
         <v>-0.23214714574117415</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
         <v>-4.0124198029338733E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
         <v>-3.2828889296731688E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
         <v>7.0012631255274724E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
         <v>2.2109251975349915E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
         <v>7.4441925842929019E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
         <v>-6.0744611487830086E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
         <v>-0.10630307010370264</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
         <v>-0.15413200745778455</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
         <v>-0.20099319977590838</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
         <v>-0.17318914047357437</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
         <v>-0.21428108353887118</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
         <v>-0.14888385168585802</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
         <v>-0.28474036634920347</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
         <v>-0.35359914775391277</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
         <v>-0.38724689823491681</v>
       </c>
     </row>
@@ -39761,99 +39761,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
         <v>-0.33083432656065576</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
         <v>-0.33970444222770774</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
         <v>-0.33635743718771183</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
         <v>-0.34139451407958687</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
         <v>-0.33025992305544211</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
         <v>-0.32586352699630539</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
         <v>-0.27117368556719662</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
         <v>-0.23094334775972059</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
         <v>-0.22815970000368432</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
         <v>-0.2159646717391446</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
         <v>-0.22083605531220804</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
         <v>-0.21055202332462974</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
         <v>-0.22421619901596637</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
         <v>-0.22582342420843968</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
         <v>-0.25632756420167002</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
         <v>-0.26497123233301273</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
         <v>-0.27118473178845082</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
         <v>-0.27228935391386194</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
         <v>-0.27448755194343027</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
         <v>-0.28378294712876556</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
         <v>-0.31097322074576234</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
         <v>-0.32019681549294587</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
         <v>-0.3284372965485135</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
         <v>-0.33135349895959904</v>
       </c>
     </row>
@@ -39862,99 +39862,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
         <v>1.9404528669723493E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
         <v>-0.16170440558102911</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
         <v>-0.20374755103209674</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
         <v>-0.26367330133565464</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
         <v>-0.24483949409739361</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
         <v>-0.2853607157312279</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
         <v>-0.54218535988933292</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
         <v>-0.16950426514434938</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
         <v>-0.26633666801581274</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
         <v>-8.3896050424981022E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
         <v>7.4574267044427558E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
         <v>0.24236636789438959</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
         <v>0.24483949409739361</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
         <v>0.20374755103209674</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
         <v>0.45153577252537963</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
         <v>0.37667614476522082</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
         <v>0.32626241831937058</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
         <v>0.27309020495478514</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
         <v>0.27584869187352035</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
         <v>0.39779283772933166</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
         <v>0.34842543390782926</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
         <v>-3.7287133522213779E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
         <v>-5.764286457770805E-2</v>
       </c>
     </row>
@@ -39963,99 +39963,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
         <v>-0.17046774110929136</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
         <v>-0.18655840340278126</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
         <v>-0.19234948717507591</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
         <v>-0.19227175450699138</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
         <v>-0.19433167021123043</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
         <v>-0.19821830361545506</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
         <v>-6.2807995812269701E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
         <v>5.6356184361256841E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
         <v>0.12437226893518749</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
         <v>0.1334669911010731</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
         <v>5.9465491084636508E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
         <v>0.13521597613297415</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
         <v>0.14621514866692983</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
         <v>0.1418621192541982</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
         <v>0.11158524503528855</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
         <v>4.8582917552807608E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
         <v>2.3552998429601135E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
         <v>2.3086602421094182E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
         <v>2.4757854784910764E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
         <v>4.7611259201751459E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
         <v>7.046466361859216E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
         <v>9.8137493456671374E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
         <v>-7.532295537387293E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
         <v>-0.1256159916245394</v>
       </c>
     </row>
@@ -40064,99 +40064,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
         <v>-0.11104659327843479</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
         <v>-0.12293375266673086</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
         <v>-0.12593761218841357</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
         <v>-0.12934768758847334</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
         <v>-0.12614072012760208</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
         <v>-0.12975390346685037</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
         <v>-0.10140431111274859</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
         <v>-8.4214965522478744E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
         <v>-6.9142218456383936E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
         <v>-5.2380468527563576E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
         <v>-5.3428077898114858E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
         <v>-5.7148160152725488E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
         <v>-6.9783611948558172E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
         <v>-7.0553284139167255E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
         <v>-8.0687301315520391E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
         <v>-7.9105197368157243E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
         <v>-7.8570702791345384E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
         <v>-6.0323057938988026E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
         <v>-5.5031561628550468E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
         <v>-6.2439656463163039E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
         <v>-5.1824594167679226E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
         <v>-6.6277327524672303E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
         <v>-7.7416194505431704E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
         <v>-8.7454002657958704E-2</v>
       </c>
     </row>
@@ -40165,99 +40165,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
         <v>-0.20804160174012762</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
         <v>-0.25449136946000783</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
         <v>-0.28155928540994901</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
         <v>-0.29115325321026964</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
         <v>-0.28708961614147227</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
         <v>-0.30217501707860661</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
         <v>-0.22735286804760027</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
         <v>6.6837555228702215E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
         <v>9.6167365407646754E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
         <v>0.13822123165355102</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
         <v>0.10671989941784907</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
         <v>0.13829117443173289</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
         <v>0.14059975915502124</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
         <v>0.12723750607417392</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
         <v>5.6429552443471594E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
         <v>3.886925328882853E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
         <v>2.903226987303428E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
         <v>3.4318051781914514E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
         <v>3.0007513668760432E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
         <v>3.0784504098437578E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
         <v>7.1250905349439425E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
         <v>1.0999897093666284E-3</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
         <v>-0.12025896079236677</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
         <v>-0.16986305562021481</v>
       </c>
     </row>
@@ -40266,99 +40266,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
         <v>7.7618114678894012E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
         <v>7.0660748657256439E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
         <v>5.4517485310175549E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
         <v>4.8950686585831432E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
         <v>4.527723356268816E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
         <v>5.4599016943241603E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
         <v>0.17933335646398058</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
         <v>0.24902478459478489</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
         <v>0.31925069787568899</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
         <v>0.30148133140245714</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
         <v>0.29416160256719259</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
         <v>0.28762548331639637</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
         <v>0.31117906620214852</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
         <v>0.27965350141660339</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
         <v>0.26750528808975965</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
         <v>0.24856277200741048</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
         <v>0.23615184564068734</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
         <v>0.24902478459478489</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
         <v>0.20337612914812905</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
         <v>0.18756805140365315</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
         <v>0.19309408431146419</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
         <v>0.13815082269527701</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
         <v>6.1302728995340304E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
         <v>6.3920800323795046E-2</v>
       </c>
     </row>
@@ -40367,99 +40367,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
         <v>0.66289294264364229</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
         <v>0.63564099429131005</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
         <v>0.6840096356077533</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
         <v>0.68486571775494698</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
         <v>0.68486571775494698</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
         <v>0.6563296461818241</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
         <v>0.57913957257652715</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
         <v>0.55088886171913554</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
         <v>0.41948025212490508</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
         <v>0.30562132654814506</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
         <v>0.3347281195527303</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
         <v>0.40749510206419348</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
         <v>0.28250710857391559</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
         <v>0.40749510206419348</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
         <v>0.4611429166216644</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
         <v>0.44744560226656543</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
         <v>0.46570868807336402</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
         <v>0.45115529157107126</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
         <v>0.40549757705407485</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
         <v>0.50337630254988597</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
         <v>0.53134165269154643</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
         <v>0.62579604959858282</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
         <v>0.57642864577708042</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
         <v>0.57913957257652715</v>
       </c>
     </row>
@@ -40468,99 +40468,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
         <v>4.7950979242682358E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
         <v>5.4044934860722704E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
         <v>5.194985960809715E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
         <v>4.9912610211701187E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
         <v>5.081558319744002E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
         <v>5.218338710440891E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
         <v>5.4810015420067915E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
         <v>9.9607261426844743E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
         <v>0.11595418616866826</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
         <v>0.11501117989784741</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
         <v>0.11120356967226892</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
         <v>0.10876153928226592</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
         <v>0.11809819099194958</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
         <v>0.11568507353006137</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
         <v>7.86831977573106E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
         <v>0.1070756931660343</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
         <v>0.1063106126066891</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
         <v>9.8642014442089435E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
         <v>8.0533625156657157E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
         <v>7.1615098868941199E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
         <v>7.3670140836484724E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
         <v>7.388809983304237E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
         <v>5.3084136018754294E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
         <v>5.2114440891212116E-2</v>
       </c>
     </row>

--- a/data/CS1/case18_1/case18_1_2030.xlsx
+++ b/data/CS1/case18_1/case18_1_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47035F-CBD5-491D-84BE-5B8966682E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF66B848-B2FC-4C4E-8A2B-7193A4EA9ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15017,7 +15017,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,16 +15033,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
